--- a/2. Hardware PCB/REV_4.0/inversor/Project Outputs for inversor_rev4/Pick Place for inversor_rev4.xlsx
+++ b/2. Hardware PCB/REV_4.0/inversor/Project Outputs for inversor_rev4/Pick Place for inversor_rev4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\inversor\Project Outputs for inversor_rev4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\inversor\Project Outputs for inversor_rev4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="340">
   <si>
     <t>Altium Designer Pick and Place Locations</t>
   </si>
   <si>
-    <t>F:\Projects\20190909 - 3phase_inverter\3phase_inverter\2. Hardware PCB\REV_4.0\inversor\Project Outputs for inversor_rev4\Pick Place for inversor_rev4.csv</t>
+    <t>C:\Users\VMORAIS\Desktop\3phase_inverter\2. Hardware PCB\REV_4.0\inversor\Project Outputs for inversor_rev4\Pick Place for inversor_rev4.csv</t>
   </si>
   <si>
     <t>========================================================================================================================</t>
@@ -33,10 +33,10 @@
     <t>File Design Information:</t>
   </si>
   <si>
-    <t>Date:       10/03/20</t>
-  </si>
-  <si>
-    <t>Time:       23:37</t>
+    <t>Date:       02/04/20</t>
+  </si>
+  <si>
+    <t>Time:       18:00</t>
   </si>
   <si>
     <t>Revision:   Not in VersionControl</t>
@@ -75,1000 +75,970 @@
     <t>LCSC PART #</t>
   </si>
   <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>IC CC 30A SO-8</t>
+  </si>
+  <si>
+    <t>TopLayer</t>
+  </si>
+  <si>
+    <t>CC6303_SOP8</t>
+  </si>
+  <si>
+    <t>201.000</t>
+  </si>
+  <si>
+    <t>2420.000</t>
+  </si>
+  <si>
+    <t>Sensores de Corrente de Montagem de Painel Hall Effect IC LF 30A 66 mV/A</t>
+  </si>
+  <si>
+    <t>C10681</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C 100nF MLCC 1812 X7R 1kV</t>
+  </si>
+  <si>
+    <t>CAPC_1812</t>
+  </si>
+  <si>
+    <t>1301.000</t>
+  </si>
+  <si>
+    <t>2424.528</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 1000V 0.1uF X7R 1812 10% AEC-Q200</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>1613.000</t>
+  </si>
+  <si>
+    <t>610.528</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>2011.000</t>
+  </si>
+  <si>
+    <t>-85.472</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>1804.333</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>1597.667</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>1391.000</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>1572.667</t>
+  </si>
+  <si>
+    <t>3069.528</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>1986.000</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>1779.333</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>1366.000</t>
+  </si>
+  <si>
+    <t>P 2p 5mm</t>
+  </si>
+  <si>
+    <t>connector1x2_parafuso</t>
+  </si>
+  <si>
+    <t>-169.000</t>
+  </si>
+  <si>
+    <t>2989.528</t>
+  </si>
+  <si>
+    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
+  </si>
+  <si>
+    <t>50.000</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C 10uF 2917 TANT 50V</t>
+  </si>
+  <si>
+    <t>CAPC_2917</t>
+  </si>
+  <si>
+    <t>2871.000</t>
+  </si>
+  <si>
+    <t>795.000</t>
+  </si>
+  <si>
+    <t>Condensadores de tântalo - revestimento sólido de SMD 50V 10uF 10% ESR=0.8Ohms</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>BottomLayer</t>
+  </si>
+  <si>
+    <t>2611.000</t>
+  </si>
+  <si>
+    <t>870.000</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>IC DIO generic</t>
+  </si>
+  <si>
+    <t>Diode_th</t>
+  </si>
+  <si>
+    <t>1643.205</t>
+  </si>
+  <si>
+    <t>909.780</t>
+  </si>
+  <si>
+    <t>Diodos - Fins gerais, energia, comutação Hi Conductance Fast</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>1645.331</t>
+  </si>
+  <si>
+    <t>1100.000</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>1646.669</t>
+  </si>
+  <si>
+    <t>1280.000</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R 1k8 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>RESC_0805</t>
+  </si>
+  <si>
+    <t>2046.000</t>
+  </si>
+  <si>
+    <t>1030.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD ResA-AS 0805 1k8 1% 125mW TC100</t>
+  </si>
+  <si>
+    <t>C17398</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R 100 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>1261.000</t>
+  </si>
+  <si>
+    <t>960.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 100ohms 1% Commercial Use</t>
+  </si>
+  <si>
+    <t>C17408</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>1271.000</t>
+  </si>
+  <si>
+    <t>1150.000</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>1340.000</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C 10nF 0805 MLCC 50V X7R</t>
+  </si>
+  <si>
+    <t>CAPC_0805</t>
+  </si>
+  <si>
+    <t>1311.000</t>
+  </si>
+  <si>
+    <t>1230.000</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10nF 50V X7R 10%</t>
+  </si>
+  <si>
+    <t>C1710</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>1040.000</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>850.000</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R 0 1/8W 0805</t>
+  </si>
+  <si>
+    <t>2791.000</t>
+  </si>
+  <si>
+    <t>200.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
+  </si>
+  <si>
+    <t>C17477</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C 1nF 0805 MLCC 50V X7R</t>
+  </si>
+  <si>
+    <t>2671.000</t>
+  </si>
+  <si>
+    <t>1500.000</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT WCAP-CSGP 1000pF 0805 10% 50V MLCC</t>
+  </si>
+  <si>
+    <t>C46653</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>1260.000</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>1420.000</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>1180.000</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>2626.000</t>
+  </si>
+  <si>
+    <t>1680.000</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>2509.937</t>
+  </si>
+  <si>
+    <t>1950.000</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>2521.000</t>
+  </si>
+  <si>
+    <t>2220.000</t>
+  </si>
+  <si>
+    <t>263.000</t>
+  </si>
+  <si>
+    <t>-325.000</t>
+  </si>
+  <si>
+    <t>294.000</t>
+  </si>
+  <si>
+    <t>3362.000</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P 8p 2.54 SR DW 3P</t>
+  </si>
+  <si>
+    <t>MOLEX_3p_105431_1103</t>
+  </si>
+  <si>
+    <t>3342.000</t>
+  </si>
+  <si>
+    <t>1740.000</t>
+  </si>
+  <si>
+    <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>206.000</t>
+  </si>
+  <si>
+    <t>701.000</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>1460.500</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>930.000</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>1679.213</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>2428.425</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C 10uF 0805 MLCC 25V X5R</t>
+  </si>
+  <si>
+    <t>197.000</t>
+  </si>
+  <si>
+    <t>595.000</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10uF 25V X5R +/-10% 0805 Gen Purp</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>1363.000</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>2131.000</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>IC IGBT IPM  IKCM30F60GA</t>
+  </si>
+  <si>
+    <t>ikcm30f60ga</t>
+  </si>
+  <si>
+    <t>1653.784</t>
+  </si>
+  <si>
+    <t>1553.953</t>
+  </si>
+  <si>
+    <t>Controladores e drivers de Motor/Movimento/Ignição IFPS MODULES</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>2511.000</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>2621.000</t>
+  </si>
+  <si>
+    <t>1685.000</t>
+  </si>
+  <si>
+    <t>C_bus2</t>
+  </si>
+  <si>
+    <t>C 470uF EleCap TH 450V</t>
+  </si>
+  <si>
+    <t>Capacitor_DCBUS</t>
+  </si>
+  <si>
+    <t>2297.000</t>
+  </si>
+  <si>
+    <t>3056.851</t>
+  </si>
+  <si>
+    <t>Capacitores eletrolíticos de alumínio - terminal de pressão 450V 470uF 20% Tol.</t>
+  </si>
+  <si>
+    <t>C_bus1</t>
+  </si>
+  <si>
+    <t>1087.000</t>
+  </si>
+  <si>
+    <t>3058.851</t>
+  </si>
+  <si>
+    <t>C_bus4</t>
+  </si>
+  <si>
+    <t>-61.150</t>
+  </si>
+  <si>
+    <t>C_bus3</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>1669.000</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>918.000</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>3130.000</t>
+  </si>
+  <si>
+    <t>2350.000</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>3368.000</t>
+  </si>
+  <si>
+    <t>2594.000</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C1uF 0805 MLCC 50V X5R</t>
+  </si>
+  <si>
+    <t>3313.000</t>
+  </si>
+  <si>
+    <t>2784.000</t>
+  </si>
+  <si>
+    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 0805 50V 1uF 20% X5R</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>3290.000</t>
+  </si>
+  <si>
+    <t>1656.000</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>3440.000</t>
+  </si>
+  <si>
+    <t>1618.000</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R 0040 10W 7146 1%</t>
+  </si>
+  <si>
+    <t>RESC7247X15N</t>
+  </si>
+  <si>
+    <t>817.000</t>
+  </si>
+  <si>
+    <t>1239.000</t>
+  </si>
+  <si>
+    <t>MCLRP12FTWRR039 -  SMD Current Sense Resistor, 0.039 ohm, LRP Series, 2512 [6432 Metric], 3 W, ± 1%, Metal Strip</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>1082.000</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>929.000</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R 330 1/8 0805 1%</t>
+  </si>
+  <si>
+    <t>3418.000</t>
+  </si>
+  <si>
+    <t>1889.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 330ohms 1% Commercial Use</t>
+  </si>
+  <si>
+    <t>C17630</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R 150R 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>3397.000</t>
+  </si>
+  <si>
+    <t>2812.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 150ohms 1% 100ppm</t>
+  </si>
+  <si>
+    <t>C17471</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>IC CC/CC 1W 5V</t>
+  </si>
+  <si>
+    <t>DC/DC_ISO</t>
+  </si>
+  <si>
+    <t>3197.000</t>
+  </si>
+  <si>
+    <t>2209.410</t>
+  </si>
+  <si>
+    <t>Conversores CC/CC com isolação 1W 5Vin 5Vout 200mA SIP7</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>IC AmpIso UNI AMC1311</t>
+  </si>
+  <si>
+    <t>AMC1311_-_SOIC8</t>
+  </si>
+  <si>
+    <t>3391.000</t>
+  </si>
+  <si>
+    <t>2230.433</t>
+  </si>
+  <si>
+    <t>Amplificadores de isolamento A 595-AMC1311DWV</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R 3K 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>820.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 3Kohms 1% 100ppm</t>
+  </si>
+  <si>
+    <t>C17661</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>2316.000</t>
+  </si>
+  <si>
+    <t>980.000</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R 30k 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>3424.000</t>
+  </si>
+  <si>
+    <t>3105.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 0805 30Kohms 1% AEC-Q200</t>
+  </si>
+  <si>
+    <t>C17621</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>3425.000</t>
+  </si>
+  <si>
+    <t>3106.000</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>3423.000</t>
+  </si>
+  <si>
+    <t>2968.000</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>3480.000</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>3282.000</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>3422.000</t>
+  </si>
+  <si>
+    <t>3284.000</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>3215.402</t>
+  </si>
+  <si>
+    <t>3336.902</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>3178.000</t>
+  </si>
+  <si>
+    <t>3196.000</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>2816.000</t>
+  </si>
+  <si>
+    <t>3411.000</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>2997.000</t>
+  </si>
+  <si>
+    <t>3412.000</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>3000.000</t>
+  </si>
+  <si>
+    <t>3303.500</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>3195.000</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>2516.000</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>3386.000</t>
+  </si>
+  <si>
+    <t>1265.000</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>3121.000</t>
+  </si>
+  <si>
+    <t>1985.000</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>3336.000</t>
+  </si>
+  <si>
+    <t>1345.000</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R 3k6 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>2976.000</t>
+  </si>
+  <si>
+    <t>2465.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8watt 3.6Kohms 1%</t>
+  </si>
+  <si>
+    <t>C18359</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R 49k9 1/8W 0805 1%</t>
+  </si>
+  <si>
+    <t>2896.000</t>
+  </si>
+  <si>
+    <t>2360.000</t>
+  </si>
+  <si>
+    <t>Resistores de Filme Espesso - SMD 1/8Watt 49.9Kohms 1% Commercial Use</t>
+  </si>
+  <si>
+    <t>C17719</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>3291.000</t>
+  </si>
+  <si>
+    <t>1450.000</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>2966.000</t>
+  </si>
+  <si>
+    <t>2145.433</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>2971.000</t>
+  </si>
+  <si>
+    <t>2285.000</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>3335.998</t>
+  </si>
+  <si>
+    <t>635.000</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>990.413</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>P 8p 2.54 SR DW 3P</t>
-  </si>
-  <si>
-    <t>BottomLayer</t>
-  </si>
-  <si>
-    <t>MOLEX_3p_105431_1103</t>
-  </si>
-  <si>
-    <t>3225.000</t>
-  </si>
-  <si>
-    <t>-2774.528</t>
-  </si>
-  <si>
-    <t>Distribuidores e Alojamento de Fios CGrid Hrd SRDW THo le 8ckt</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>3654.998</t>
-  </si>
-  <si>
-    <t>-2419.115</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R 49k9 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>RESC_0805</t>
-  </si>
-  <si>
-    <t>3290.000</t>
-  </si>
-  <si>
-    <t>-1124.527</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 49.9Kohms 1% Commercial Use</t>
-  </si>
-  <si>
-    <t>C17719</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>IC AmpIso UNI AMC1311</t>
-  </si>
-  <si>
-    <t>TopLayer</t>
-  </si>
-  <si>
-    <t>AMC1311_-_SOIC8</t>
-  </si>
-  <si>
-    <t>3285.000</t>
-  </si>
-  <si>
-    <t>-1264.094</t>
-  </si>
-  <si>
-    <t>Amplificadores de isolamento A 595-AMC1311DWV</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R 330 1/8 0805 1%</t>
-  </si>
-  <si>
-    <t>3610.000</t>
-  </si>
-  <si>
-    <t>-1959.527</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 330ohms 1% Commercial Use</t>
-  </si>
-  <si>
-    <t>C17630</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>3215.000</t>
-  </si>
-  <si>
-    <t>-1049.527</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R 3k6 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>3295.000</t>
-  </si>
-  <si>
-    <t>-944.528</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8watt 3.6Kohms 1%</t>
-  </si>
-  <si>
-    <t>C18359</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>3655.000</t>
-  </si>
-  <si>
-    <t>-2064.528</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C 10uF 0805 MLCC 25V X5R</t>
-  </si>
-  <si>
-    <t>CAPC_0805</t>
-  </si>
-  <si>
-    <t>3440.000</t>
-  </si>
-  <si>
-    <t>-1424.528</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10uF 25V X5R +/-10% 0805 Gen Purp</t>
-  </si>
-  <si>
-    <t>C15850</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C1uF 0805 MLCC 50V X5R</t>
-  </si>
-  <si>
-    <t>3705.000</t>
-  </si>
-  <si>
-    <t>-2144.528</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 0805 50V 1uF 20% X5R</t>
-  </si>
-  <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>2835.000</t>
-  </si>
-  <si>
-    <t>-2449.528</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>R 30k 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>3316.000</t>
-  </si>
-  <si>
-    <t>-214.528</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 0805 30Kohms 1% AEC-Q200</t>
-  </si>
-  <si>
-    <t>C17621</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>3319.000</t>
-  </si>
-  <si>
-    <t>-106.028</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>2.473</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>3135.000</t>
-  </si>
-  <si>
-    <t>1.472</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>3497.000</t>
-  </si>
-  <si>
-    <t>-213.528</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>3534.402</t>
-  </si>
-  <si>
-    <t>-72.626</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>3741.000</t>
-  </si>
-  <si>
-    <t>-125.528</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>3743.000</t>
-  </si>
-  <si>
-    <t>-127.528</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>3799.000</t>
-  </si>
-  <si>
-    <t>-597.528</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>3742.000</t>
-  </si>
-  <si>
-    <t>-441.527</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>3744.000</t>
-  </si>
-  <si>
-    <t>-303.527</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>-304.527</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C 10nF 0805 MLCC 50V X7R</t>
-  </si>
-  <si>
-    <t>2635.000</t>
-  </si>
-  <si>
-    <t>-2429.528</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 10nF 50V X7R 10%</t>
-  </si>
-  <si>
-    <t>C1710</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R 3K 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>2365.000</t>
-  </si>
-  <si>
-    <t>-2589.528</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8watt 3Kohms 1% 100ppm</t>
-  </si>
-  <si>
-    <t>C17661</t>
-  </si>
-  <si>
-    <t>C_bus5</t>
-  </si>
-  <si>
-    <t>C 470nF PPCap TH 630V</t>
-  </si>
-  <si>
-    <t>Snubber_cap_0.47uF</t>
-  </si>
-  <si>
-    <t>1095.000</t>
-  </si>
-  <si>
-    <t>-1704.614</t>
-  </si>
-  <si>
-    <t>B32653A6474K000 -  DC Film Capacitor, 0.47 µF, 630 V, Metallized PP, ± 10%, B32653 Series</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>3710.000</t>
-  </si>
-  <si>
-    <t>-1179.094</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>IC CC/CC 1W 5V</t>
-  </si>
-  <si>
-    <t>DC/DC_ISO</t>
-  </si>
-  <si>
-    <t>3516.000</t>
-  </si>
-  <si>
-    <t>-1200.118</t>
-  </si>
-  <si>
-    <t>Conversores CC/CC com isolação 1W 5Vin 5Vout 200mA SIP7</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R 150R 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>3716.000</t>
-  </si>
-  <si>
-    <t>-597.527</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8watt 150ohms 1% 100ppm</t>
-  </si>
-  <si>
-    <t>C17471</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>3737.000</t>
-  </si>
-  <si>
-    <t>-1520.528</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R 0039 3W 6432 1%</t>
-  </si>
-  <si>
-    <t>RESC6432X09M</t>
-  </si>
-  <si>
-    <t>1124.000</t>
-  </si>
-  <si>
-    <t>-2506.528</t>
-  </si>
-  <si>
-    <t>MCLRP12FTWRR039 -  SMD Current Sense Resistor, 0.039 ohm, LRP Series, 2512 [6432 Metric], 3 W, ± 1%, Metal Strip</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>-2327.528</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>3759.000</t>
-  </si>
-  <si>
-    <t>-1791.527</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>3609.000</t>
-  </si>
-  <si>
-    <t>-1753.527</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>3632.000</t>
-  </si>
-  <si>
-    <t>-625.528</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C 10uF 2917 TANT 50V</t>
-  </si>
-  <si>
-    <t>CAPC_2917</t>
-  </si>
-  <si>
-    <t>3687.000</t>
-  </si>
-  <si>
-    <t>-815.528</t>
-  </si>
-  <si>
-    <t>Condensadores de tântalo - revestimento sólido de SMD 50V 10uF 10% ESR=0.8Ohms</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>3449.000</t>
-  </si>
-  <si>
-    <t>-1059.527</t>
-  </si>
-  <si>
-    <t>CC3</t>
-  </si>
-  <si>
-    <t>IC CC 30A SO-8</t>
-  </si>
-  <si>
-    <t>CC6303_SOP8</t>
-  </si>
-  <si>
-    <t>520.000</t>
-  </si>
-  <si>
-    <t>-2491.528</t>
-  </si>
-  <si>
-    <t>Sensores de Corrente de Montagem de Painel Hall Effect IC LF 30A 66 mV/A</t>
-  </si>
-  <si>
-    <t>C10681</t>
-  </si>
-  <si>
-    <t>CC2</t>
-  </si>
-  <si>
-    <t>-1740.527</t>
-  </si>
-  <si>
-    <t>C_bus3</t>
-  </si>
-  <si>
-    <t>C 470uF EleCap TH 450V</t>
-  </si>
-  <si>
-    <t>Capacitor_DCBUS</t>
-  </si>
-  <si>
-    <t>2616.000</t>
-  </si>
-  <si>
-    <t>-3470.677</t>
-  </si>
-  <si>
-    <t>Capacitores eletrolíticos de alumínio - terminal de pressão 450V 470uF 20% Tol.</t>
-  </si>
-  <si>
-    <t>C_bus4</t>
-  </si>
-  <si>
-    <t>1406.000</t>
-  </si>
-  <si>
-    <t>C_bus1</t>
-  </si>
-  <si>
-    <t>-350.677</t>
-  </si>
-  <si>
-    <t>C_bus2</t>
-  </si>
-  <si>
-    <t>-352.677</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>2940.000</t>
-  </si>
-  <si>
-    <t>-1724.527</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>2830.000</t>
-  </si>
-  <si>
-    <t>-1189.527</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>2840.000</t>
-  </si>
-  <si>
-    <t>-1459.527</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>IC IGBT IPM  IKCM30F60GA</t>
-  </si>
-  <si>
-    <t>ikcm30f60ga</t>
-  </si>
-  <si>
-    <t>1972.783</t>
-  </si>
-  <si>
-    <t>-1855.575</t>
-  </si>
-  <si>
-    <t>Controladores e drivers de Motor/Movimento/Ignição IFPS MODULES</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>516.000</t>
-  </si>
-  <si>
-    <t>-1278.527</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>-2046.527</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>-2814.527</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>P 2p 5mm</t>
-  </si>
-  <si>
-    <t>connector1x2_parafuso</t>
-  </si>
-  <si>
-    <t>150.000</t>
-  </si>
-  <si>
-    <t>-981.102</t>
-  </si>
-  <si>
-    <t>Bloques de terminales de PCB de perfil estándar RS de 5,0 mm</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>-1730.315</t>
-  </si>
-  <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>-2479.528</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>525.000</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>-1949.027</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>-2708.528</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>3661.000</t>
-  </si>
-  <si>
-    <t>-1669.527</t>
-  </si>
-  <si>
-    <t>613.000</t>
-  </si>
-  <si>
-    <t>-47.528</t>
-  </si>
-  <si>
-    <t>582.000</t>
-  </si>
-  <si>
-    <t>-3734.528</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>2828.937</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>2945.000</t>
-  </si>
-  <si>
-    <t>-1729.527</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R 100 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>2990.000</t>
-  </si>
-  <si>
-    <t>-1909.527</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 100ohms 1% Commercial Use</t>
-  </si>
-  <si>
-    <t>C17408</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>-1989.527</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>-2069.528</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>-2149.528</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>-2229.528</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>-2309.528</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C 1nF 0805 MLCC 50V X7R</t>
-  </si>
-  <si>
-    <t>-2309.527</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT WCAP-CSGP 1000pF 0805 10% 50V MLCC</t>
-  </si>
-  <si>
-    <t>C46653</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>-2069.527</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>-2229.527</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>-2149.527</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R 0 1/8W 0805</t>
-  </si>
-  <si>
-    <t>3110.000</t>
-  </si>
-  <si>
-    <t>-3209.528</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD 1/8Watt 0ohms Commercial Use</t>
-  </si>
-  <si>
-    <t>C17477</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>1630.000</t>
-  </si>
-  <si>
-    <t>-2559.527</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>-2369.527</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>-2179.527</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>1590.000</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>-2259.528</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>1580.000</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R 1k8 1/8W 0805 1%</t>
-  </si>
-  <si>
-    <t>-2379.528</t>
-  </si>
-  <si>
-    <t>Resistores de Filme Espesso - SMD ResA-AS 0805 1k8 1% 125mW TC100</t>
-  </si>
-  <si>
-    <t>C17398</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>IC DIO generic</t>
-  </si>
-  <si>
-    <t>Diode_th</t>
-  </si>
-  <si>
-    <t>1965.669</t>
-  </si>
-  <si>
-    <t>-2129.528</t>
-  </si>
-  <si>
-    <t>Diodos - Fins gerais, energia, comutação Hi Conductance Fast</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>1964.331</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>1962.205</t>
-  </si>
-  <si>
-    <t>-2499.747</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>2930.000</t>
-  </si>
-  <si>
-    <t>-2539.528</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>3190.000</t>
-  </si>
-  <si>
-    <t>-2614.528</t>
-  </si>
-  <si>
-    <t>-3359.528</t>
-  </si>
-  <si>
-    <t>-420.000</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C 100nF MLCC 1812 X7R 1kV</t>
-  </si>
-  <si>
-    <t>CAPC_1812</t>
-  </si>
-  <si>
-    <t>1685.000</t>
-  </si>
-  <si>
-    <t>-340.000</t>
-  </si>
-  <si>
-    <t>Capacitores de cerâmica multicamada MLCC - SMD/SMT 1000V 0.1uF X7R 1812 10% AEC-Q200</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>2098.333</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>2305.000</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>1891.667</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>1710.000</t>
-  </si>
-  <si>
-    <t>-3495.000</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>1916.667</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>2123.333</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>2330.000</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>1932.000</t>
-  </si>
-  <si>
-    <t>-2799.000</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>1620.000</t>
-  </si>
-  <si>
-    <t>-985.000</t>
-  </si>
-  <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>-989.528</t>
+    <t>2906.000</t>
   </si>
 </sst>
 </file>
@@ -1875,15 +1845,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="8" max="8" width="104.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1985,2794 +1955,2768 @@
       <c r="H14" t="s">
         <v>24</v>
       </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17">
-        <v>180</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
       <c r="G18">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
         <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20">
-        <v>360</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
         <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>180</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G22">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G24">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>74</v>
+      <c r="A25">
+        <f>+VDC2</f>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>77</v>
+      <c r="A26">
+        <f>-VDC2</f>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G27">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G31">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G32">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G34">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G35">
         <v>360</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G36">
         <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G37">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G38">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G39">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I39" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G40">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="I40" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G41">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>120</v>
+      </c>
+      <c r="I41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G42">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>120</v>
+      </c>
+      <c r="I42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G43">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="G44">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="G45">
         <v>180</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="I45" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="G46">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>155</v>
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="G47">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="G48">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="G49">
         <v>360</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="G50">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G51">
         <v>360</v>
       </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>92</v>
+      </c>
+      <c r="I51" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="G52">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="G53">
         <v>180</v>
       </c>
       <c r="H53" t="s">
-        <v>182</v>
-      </c>
-      <c r="I53" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="G54">
         <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
-      </c>
-      <c r="I54" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>186</v>
+      <c r="A55">
+        <f>-VDC1</f>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="G55">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>192</v>
+      <c r="A56">
+        <f>+VDC1</f>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="F56" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="G56">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="G59">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H59" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="G60">
         <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="G61">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G62">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G63">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
-        <v>66</v>
-      </c>
-      <c r="I63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="G64">
         <v>360</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="I64" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="G65">
         <v>360</v>
       </c>
       <c r="H65" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="G66">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H66" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="I66" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="F67" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="G67">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H67" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="F68" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="G68">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H68" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="G69">
         <v>180</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="G70">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="G71">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="G72">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f>+VDC1</f>
-        <v>0</v>
+      <c r="A73" t="s">
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="F73" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f>-VDC1</f>
-        <v>0</v>
+      <c r="A74" t="s">
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="G74">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G75">
         <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>173</v>
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G76">
         <v>180</v>
       </c>
       <c r="H76" t="s">
-        <v>173</v>
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="G77">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="I77" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="F78" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="G78">
         <v>360</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
-      </c>
-      <c r="I78" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E79" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F79" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="G79">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="I79" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G80">
         <v>360</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="I80" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G81">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="I81" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
-      </c>
-      <c r="I82" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
-      </c>
-      <c r="I83" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="E84" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F84" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G84">
         <v>180</v>
       </c>
       <c r="H84" t="s">
-        <v>268</v>
-      </c>
-      <c r="I84" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" t="s">
+        <v>236</v>
+      </c>
+      <c r="G85">
         <v>270</v>
       </c>
-      <c r="B85" t="s">
-        <v>266</v>
-      </c>
-      <c r="C85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" t="s">
-        <v>251</v>
-      </c>
-      <c r="F85" t="s">
-        <v>271</v>
-      </c>
-      <c r="G85">
-        <v>180</v>
-      </c>
       <c r="H85" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="I85" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F86" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="G86">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="I86" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G87">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s">
-        <v>268</v>
-      </c>
-      <c r="I87" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F88" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G88">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H88" t="s">
-        <v>268</v>
-      </c>
-      <c r="I88" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G89">
         <v>180</v>
       </c>
       <c r="H89" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I89" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E90" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F90" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="G90">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="I90" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E91" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F91" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="G91">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F92" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G92">
         <v>180</v>
       </c>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F93" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G93">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="I93" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F94" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G94">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I94" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F95" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G95">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I95" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F96" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="G96">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I96" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="F97" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G97">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="H97" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F98" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G98">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H98" t="s">
-        <v>307</v>
+        <v>269</v>
+      </c>
+      <c r="I98" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G99">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>307</v>
+        <v>269</v>
+      </c>
+      <c r="I99" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G100">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>307</v>
+        <v>269</v>
+      </c>
+      <c r="I100" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="E101" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F101" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G101">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>173</v>
+        <v>269</v>
+      </c>
+      <c r="I101" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G102">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>173</v>
+        <v>269</v>
+      </c>
+      <c r="I102" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f>-VDC2</f>
-        <v>0</v>
+      <c r="A103" t="s">
+        <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="F103" t="s">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="G103">
         <v>90</v>
       </c>
       <c r="H103" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="I103" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f>+VDC2</f>
-        <v>0</v>
+      <c r="A104" t="s">
+        <v>303</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="F104" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G104">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H104" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="I104" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="E105" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G105">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H105" t="s">
-        <v>326</v>
+        <v>171</v>
+      </c>
+      <c r="I105" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F106" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G106">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="H106" t="s">
-        <v>326</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="E107" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G107">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H107" t="s">
-        <v>326</v>
+        <v>316</v>
+      </c>
+      <c r="I107" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B108" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108">
+        <v>360</v>
+      </c>
+      <c r="H108" t="s">
         <v>322</v>
       </c>
-      <c r="C108" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="I108" t="s">
         <v>323</v>
-      </c>
-      <c r="E108" t="s">
-        <v>332</v>
-      </c>
-      <c r="F108" t="s">
-        <v>325</v>
-      </c>
-      <c r="G108">
-        <v>90</v>
-      </c>
-      <c r="H108" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="E109" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F109" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G109">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>326</v>
+        <v>237</v>
+      </c>
+      <c r="I109" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="E110" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F110" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G110">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="H110" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" t="s">
+        <v>331</v>
+      </c>
+      <c r="F111" t="s">
+        <v>332</v>
+      </c>
+      <c r="G111">
+        <v>180</v>
+      </c>
+      <c r="H111" t="s">
         <v>322</v>
       </c>
-      <c r="C111" t="s">
-        <v>38</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="I111" t="s">
         <v>323</v>
-      </c>
-      <c r="E111" t="s">
-        <v>339</v>
-      </c>
-      <c r="F111" t="s">
-        <v>335</v>
-      </c>
-      <c r="G111">
-        <v>90</v>
-      </c>
-      <c r="H111" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D112" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F112" t="s">
         <v>335</v>
       </c>
       <c r="G112">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H112" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D113" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="E113" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F113" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H113" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B114" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F114" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G114">
         <v>180</v>
       </c>
       <c r="H114" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>348</v>
-      </c>
-      <c r="B115" t="s">
-        <v>178</v>
-      </c>
-      <c r="C115" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" t="s">
-        <v>179</v>
-      </c>
-      <c r="E115" t="s">
-        <v>180</v>
-      </c>
-      <c r="F115" t="s">
-        <v>349</v>
-      </c>
-      <c r="G115">
-        <v>180</v>
-      </c>
-      <c r="H115" t="s">
-        <v>182</v>
-      </c>
-      <c r="I115" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
